--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_170.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_170.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1057579318448884</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03', '0:00:05.280000'), ('0:00:00.700000', '0:00:03.780000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -573,88 +588,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.84, 18.66)]</t>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:32.320000', '0:00:33.880000'), ('0:00:32.040000', '0:00:33.420000'), ('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -663,540 +680,502 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(33.9, 49.06)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C#:min', 'C#:min/b7', 'A'], ['A', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/5', 'G:min/b7', 'Eb'], ['Eb', 'F', 'Bb']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.148866, 18.419795), (7.935986, 12.498707)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(86.016643, 89.993773), (44.917324, 48.272607)]</t>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2063492063492063</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['E', 'D', 'A', 'A/b7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[['D', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:01:29.915646', '0:01:38.414149')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:02.486724', '0:01:10.753028')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1213235294117647</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A', 'A'], ['A', 'A', 'C#:min', 'F#:min'], ['A', 'A', 'A', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'A/7'], ['A', 'A', 'C#:min/5', 'F#:min'], ['A/b6', 'A/5', 'A', 'C#:min/5']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.686825, 23.760385), (8.655804, 18.686825), (46.365011, 56.488911)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(81.443752, 86.183398), (71.01849, 79.713866), (87.427993, 91.614092)]</t>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(47.58, 50.04)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
